--- a/biology/Botanique/Thymelaeaceae/Thymelaeaceae.xlsx
+++ b/biology/Botanique/Thymelaeaceae/Thymelaeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Thymelaeaceae (Thyméléacées) est constituée de plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend près de 500 espèces réparties en 44 genres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Thymelaeaceae (Thyméléacées) est constituée de plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend près de 500 espèces réparties en 44 genres.
 La plupart des classifications botaniques y ajoutent les espèces que Watson &amp; Dallwitz assignent aux familles Aquilariacées et Gonystylacées (arbres originaires de Malaisie et d'Asie du Sud-Est).
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de famille Thymelaeaceae est un nom dérivé du nom de genre Thymelaea et du suffixe -aceae indiquant le rang taxonomique des familles.
-Le nom de genre Thymelaea est un emprunt au grec θυμελαια (thymelaia), via le latin Thymelaea[2] – terme désignant une plante à fruits laxatifs, le Daphne gnidium. L’étymologie du nom grec θυμελαια (thymelaia) consiste en une composition de deux noms grecs:  θύμον thymos « espèce de sarriette » et έλαία elaea « olivier »[3].
-Le terme grec θυμελαια (thymelaia) est employé par le médecin et botaniste grec Dioscoride (Ier siècle) dans sa Matière médicale, dans la notice IV, 172[4], θυμελαία η χαμελαία identifié actuellement comme Daphne gnidium.
-Le terme latin thymelaea se rencontre aussi dans l’Histoire Naturelle de l’encyclopédiste romain Pline (HN, XIII, 114)[5] pour un arbuste poussant en Asie et en Grèce.
+Le nom de genre Thymelaea est un emprunt au grec θυμελαια (thymelaia), via le latin Thymelaea – terme désignant une plante à fruits laxatifs, le Daphne gnidium. L’étymologie du nom grec θυμελαια (thymelaia) consiste en une composition de deux noms grecs:  θύμον thymos « espèce de sarriette » et έλαία elaea « olivier ».
+Le terme grec θυμελαια (thymelaia) est employé par le médecin et botaniste grec Dioscoride (Ier siècle) dans sa Matière médicale, dans la notice IV, 172, θυμελαία η χαμελαία identifié actuellement comme Daphne gnidium.
+Le terme latin thymelaea se rencontre aussi dans l’Histoire Naturelle de l’encyclopédiste romain Pline (HN, XIII, 114) pour un arbuste poussant en Asie et en Grèce.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1789, Antoine-Laurent de Jussieu fait paraitre Genera Plantarum, ouvrage qui est à la base de la classification actuelle des genres en familles et des familles en ordres et en classes[6]. Il crée dans cet ouvrage les Thymélées, Thymelææ[7] de l’Ordre II, et Classe VI, dans lequel il place les genres Daphne, Stellera, Lagetta, Gnidia etc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1789, Antoine-Laurent de Jussieu fait paraitre Genera Plantarum, ouvrage qui est à la base de la classification actuelle des genres en familles et des familles en ordres et en classes. Il crée dans cet ouvrage les Thymélées, Thymelææ de l’Ordre II, et Classe VI, dans lequel il place les genres Daphne, Stellera, Lagetta, Gnidia etc.
 </t>
         </is>
       </c>
@@ -579,12 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont essentiellement des arbres et arbustes, rarement des lianes ou des plantes herbacées, certains des zones arides, largement répandus des régions tempérées à tropicales, avec une diversité plus marquée dans l'hémisphère sud. Les feuilles sont généralement simples, entières, parfois éricoïdes ou engainantes (Struthiola ). Les stipules sont absentes ou vestigiales[8].
-Appareil reproducteur
-Les fleurs, le plus souvent actinomorphes, sont solitaires ou regroupées en inflorescence de type grappe ou ombelle. Généralement hermaphrodites, elles sont tétra ou pentamères mais le nombre de pièces florales par verticille peut varier de 3 à 6. 
-Le périanthe présente un calice formé de lobes pétaloïdes soudés en hypanthium ou parfois plus ou moins libres (fleur périgyne), et une corolle réduite voire absente. L'androcée est généralement diplostémone avec des étamines libres ou adnés à l'hypanthium. La présence fréquente d'un disque nectarifère favorise la pollinisation entomophile. Le pistil au style souvent excentré est formé de carpelles soudés (5, parfois 2 et jusqu'à 12) en un ovaire supère dont chacune des loges contient un ovule anatrope. Le fruit est le plus souvent une baie ou une drupe avec une graine munie d'un caroncule, remplie par un embryon huileux et un endosperme droit[9].
-Le phloème contenant des fibres très résistantes, l’écorce de nombreuses espèces a été utilisée pour la fabrication de papier de haute qualité[10]. Ainsi les billets de banque japonais sont fabriqués à partir des fibres de Edgeworthia papyrifera[11]. Les tiges sont extrêmement souples et difficiles à casser et sont utilisées comme substitut à la ficelle. La plupart des espèces sont toxiques et certaines sont importantes en médecine.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont essentiellement des arbres et arbustes, rarement des lianes ou des plantes herbacées, certains des zones arides, largement répandus des régions tempérées à tropicales, avec une diversité plus marquée dans l'hémisphère sud. Les feuilles sont généralement simples, entières, parfois éricoïdes ou engainantes (Struthiola ). Les stipules sont absentes ou vestigiales.
 </t>
         </is>
       </c>
@@ -610,48 +627,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, le plus souvent actinomorphes, sont solitaires ou regroupées en inflorescence de type grappe ou ombelle. Généralement hermaphrodites, elles sont tétra ou pentamères mais le nombre de pièces florales par verticille peut varier de 3 à 6. 
+Le périanthe présente un calice formé de lobes pétaloïdes soudés en hypanthium ou parfois plus ou moins libres (fleur périgyne), et une corolle réduite voire absente. L'androcée est généralement diplostémone avec des étamines libres ou adnés à l'hypanthium. La présence fréquente d'un disque nectarifère favorise la pollinisation entomophile. Le pistil au style souvent excentré est formé de carpelles soudés (5, parfois 2 et jusqu'à 12) en un ovaire supère dont chacune des loges contient un ovule anatrope. Le fruit est le plus souvent une baie ou une drupe avec une graine munie d'un caroncule, remplie par un embryon huileux et un endosperme droit.
+Le phloème contenant des fibres très résistantes, l’écorce de nombreuses espèces a été utilisée pour la fabrication de papier de haute qualité. Ainsi les billets de banque japonais sont fabriqués à partir des fibres de Edgeworthia papyrifera. Les tiges sont extrêmement souples et difficiles à casser et sont utilisées comme substitut à la ficelle. La plupart des espèces sont toxiques et certaines sont importantes en médecine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thymelaeaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thymelaeaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux et les racines contiennent des fibres végétales robustes, donnant d’excellentes fibres papetières pour fabriquer des papiers traditionnels artisanaux en Asie orientale. 
-La famille des Thymelaeaceae (瑞香科 ruìxiāng ke) a donné une dizaine d’espèces de plantes pourvues de fibres papetières (Yi Xiaohui[12]): 
+La famille des Thymelaeaceae (瑞香科 ruìxiāng ke) a donné une dizaine d’espèces de plantes pourvues de fibres papetières (Yi Xiaohui): 
 1) Daphne odora (瑞香 ruìxiāng),  2) Daphne papyracea 白瑞香, 3) Daphne genkwa 芫花 yán huā,
 4) Edgeworthia chrysantha 结香 jiexiqng, 5) Edgeworthia gardneri 滇结香 dianjiexiang,
 6) Wikstroemia canescens 荛花 ráohuā, 7) Wikstroemia lichiangensis 丽江荛花 Lijiang raohua, 8) Wikstroemia monnula Hance, 江北荛花beijiang raohua,
 9) Stellera chamaejasme 狼毒花=瑞香狼毒, etc.
-Par ailleurs la ressemblance morphologique des genres Daphne, Edgeworthia et Wistroemia est indéniable. Elle a même été source de confusion[13].
+Par ailleurs la ressemblance morphologique des genres Daphne, Edgeworthia et Wistroemia est indéniable. Elle a même été source de confusion.
 Ces espèces fournissent la classe des papiers nommés 瑞香皮纸 Ruìxiāng pízhǐ « papier d’écorce de Thymelaeaceae ».
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thymelaeaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thymelaeaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Principaux genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cette famille cosmopolite a comme genres principaux Gnidia (160 espèces tropicales en Afrique et Asie), Pimelea (110), Daphne (95), Wikstroemia (70), Daphnopsis (65), Struthiola (35), Lachnaea (30), Thymelaea (30), Phaleria (30), et Gonystylus (25).
 La famille est représentée en France par les genres suivants :
@@ -661,33 +721,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Thymelaeaceae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thymelaeaceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010)[14] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (22 juin 2010) :
 genre Aetoxylon (Airy Shaw) Airy Shaw
 genre Amyxa Tiegh.
 genre Aquilaria Lamarck
@@ -738,7 +800,7 @@
 genre Thecanthes Wikstr.
 genre Thymelaea Mill.
 genre Wikstroemia Endl.
-Selon NCBI  (22 juin 2010)[15] :
+Selon NCBI  (22 juin 2010) :
 genre Aquilaria
 genre Arnhemia
 genre Craterosiphon
@@ -774,7 +836,7 @@
 genre Thecanthes
 genre Thymelaea
 genre Wikstroemia
-Selon DELTA Angio           (22 juin 2010)[16] :
+Selon DELTA Angio           (22 juin 2010) :
 genre Aetoxylon
 genre Amyxa
 genre Arnhemia
@@ -822,7 +884,7 @@
 genre Thecanthes
 genre Thymelaea
 genre Wikstroemia
-Selon ITIS      (22 juin 2010)[17] :
+Selon ITIS      (22 juin 2010) :
 genre Daphne L.
 genre Daphnopsis Mart.
 genre Dirca L.
